--- a/社会科学研究_図表データ/2019_20年度_財政規模_三次補正まで_修正版.xlsx
+++ b/社会科学研究_図表データ/2019_20年度_財政規模_三次補正まで_修正版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\2020Covid_NTJ\fig_table_latex\データ・グラフ\財政\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\covid19-japan-policies\社会科学研究_図表データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6250D75-498B-43FB-BCB6-E77AFD924CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F2721-3A66-4F33-AB01-8C7F74BF3358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="-16297" windowWidth="28995" windowHeight="15794" xr2:uid="{B22AF525-A7EF-495A-AD68-518B590A7CAF}"/>
+    <workbookView xWindow="-7538" yWindow="-16297" windowWidth="28996" windowHeight="15179" xr2:uid="{B22AF525-A7EF-495A-AD68-518B590A7CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="対策額の推移(財務省概要版ベース)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="269">
   <si>
     <t>緊急対応策（第一弾）</t>
     <rPh sb="0" eb="2">
@@ -1762,6 +1762,16 @@
   </si>
   <si>
     <t>C&amp;D&amp;E&amp;G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A(Gではなく感染対策とみなす）</t>
+    <rPh sb="7" eb="9">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2424,35 +2434,35 @@
   </sheetPr>
   <dimension ref="A4:AM93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20:AI21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="8.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="3" max="6" width="14.1796875" customWidth="1"/>
     <col min="7" max="7" width="14.1796875" style="38" customWidth="1"/>
-    <col min="9" max="9" width="53.86328125" customWidth="1"/>
+    <col min="9" max="9" width="53.81640625" customWidth="1"/>
     <col min="10" max="13" width="8.7265625" customWidth="1"/>
     <col min="15" max="15" width="58.08984375" customWidth="1"/>
     <col min="16" max="19" width="8.7265625" customWidth="1"/>
-    <col min="21" max="21" width="66.6796875" customWidth="1"/>
+    <col min="21" max="21" width="66.6328125" customWidth="1"/>
     <col min="22" max="22" width="8.7265625" customWidth="1"/>
     <col min="23" max="23" width="11.453125" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
     <col min="25" max="26" width="10.26953125" customWidth="1"/>
     <col min="27" max="27" width="60.90625" customWidth="1"/>
     <col min="28" max="28" width="8.7265625" customWidth="1"/>
-    <col min="29" max="29" width="11.1328125" customWidth="1"/>
+    <col min="29" max="29" width="11.08984375" customWidth="1"/>
     <col min="30" max="32" width="8.7265625" customWidth="1"/>
-    <col min="33" max="33" width="78.6796875" customWidth="1"/>
-    <col min="36" max="36" width="10.5" customWidth="1"/>
+    <col min="33" max="33" width="78.6328125" customWidth="1"/>
+    <col min="36" max="36" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:38" ht="8.4" customHeight="1" x14ac:dyDescent="0.95"/>
-    <row r="5" spans="1:38" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.95">
+    <row r="4" spans="1:38" ht="8.4" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -2486,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2666,7 +2676,7 @@
       <c r="AJ7" s="43"/>
       <c r="AK7" s="20"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2839,7 +2849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2922,7 +2932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3010,7 +3020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,7 +3108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3182,7 +3192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3257,7 +3267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.5">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -3325,7 +3335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.95">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>266</v>
       </c>
@@ -3402,7 +3412,7 @@
       <c r="AJ16" s="43"/>
       <c r="AK16" s="20"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B17" s="10" t="s">
         <v>264</v>
       </c>
@@ -3477,7 +3487,7 @@
       <c r="AJ17" s="43"/>
       <c r="AK17" s="20"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B18" s="7" t="s">
         <v>265</v>
       </c>
@@ -3555,7 +3565,7 @@
       <c r="AJ18" s="43"/>
       <c r="AK18" s="20"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>223</v>
       </c>
@@ -3623,7 +3633,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>224</v>
       </c>
@@ -3675,12 +3685,12 @@
         <v>1444</v>
       </c>
       <c r="AI20" s="19" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="AJ20" s="43"/>
       <c r="AK20" s="20"/>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>257</v>
       </c>
@@ -3741,12 +3751,12 @@
         <v>792</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="AJ21" s="43"/>
       <c r="AK21" s="20"/>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>225</v>
       </c>
@@ -3794,7 +3804,7 @@
       <c r="AJ22" s="43"/>
       <c r="AK22" s="20"/>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.5">
       <c r="I23" s="16" t="s">
         <v>104</v>
       </c>
@@ -3862,7 +3872,7 @@
       <c r="AJ23" s="43"/>
       <c r="AK23" s="20"/>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -3934,7 +3944,7 @@
       <c r="AJ24" s="43"/>
       <c r="AK24" s="20"/>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B25" s="24" t="s">
         <v>98</v>
       </c>
@@ -4011,7 +4021,7 @@
       <c r="AJ25" s="43"/>
       <c r="AK25" s="20"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.5">
       <c r="U26" s="19" t="s">
         <v>116</v>
       </c>
@@ -4049,7 +4059,7 @@
       <c r="AJ26" s="43"/>
       <c r="AK26" s="20"/>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.5">
       <c r="U27" s="16" t="s">
         <v>118</v>
       </c>
@@ -4084,7 +4094,7 @@
         <v>64956</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.5">
       <c r="U28" s="19" t="s">
         <v>121</v>
       </c>
@@ -4115,7 +4125,7 @@
       <c r="AJ28" s="43"/>
       <c r="AK28" s="20"/>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.5">
       <c r="U29" s="19" t="s">
         <v>123</v>
       </c>
@@ -4146,7 +4156,7 @@
       <c r="AJ29" s="43"/>
       <c r="AK29" s="20"/>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.5">
       <c r="U30" s="19" t="s">
         <v>126</v>
       </c>
@@ -4179,7 +4189,7 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="20"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.5">
       <c r="U31" s="19" t="s">
         <v>128</v>
       </c>
@@ -4219,7 +4229,7 @@
       <c r="AJ31" s="43"/>
       <c r="AK31" s="20"/>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.95">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.5">
       <c r="U32" s="19" t="s">
         <v>130</v>
       </c>
@@ -4253,7 +4263,7 @@
       <c r="AJ32" s="43"/>
       <c r="AK32" s="20"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U33" s="19" t="s">
         <v>132</v>
       </c>
@@ -4294,7 +4304,7 @@
       <c r="AJ33" s="43"/>
       <c r="AK33" s="20"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U34" s="16" t="s">
         <v>134</v>
       </c>
@@ -4329,7 +4339,7 @@
       <c r="AJ34" s="43"/>
       <c r="AK34" s="20"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U35" s="28" t="s">
         <v>136</v>
       </c>
@@ -4360,7 +4370,7 @@
       <c r="AJ35" s="43"/>
       <c r="AK35" s="20"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U36" s="31" t="s">
         <v>137</v>
       </c>
@@ -4382,7 +4392,7 @@
       <c r="AJ36" s="43"/>
       <c r="AK36" s="20"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.5">
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -4396,7 +4406,7 @@
       <c r="AJ37" s="43"/>
       <c r="AK37" s="20"/>
     </row>
-    <row r="38" spans="1:37" ht="58.5" x14ac:dyDescent="0.95">
+    <row r="38" spans="1:37" ht="59.4" x14ac:dyDescent="0.5">
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -4440,7 +4450,7 @@
       <c r="AJ38" s="43"/>
       <c r="AK38" s="20"/>
     </row>
-    <row r="39" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.95">
+    <row r="39" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -4492,7 +4502,7 @@
       <c r="AJ39" s="49"/>
       <c r="AK39" s="50"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U40" s="19" t="s">
         <v>146</v>
       </c>
@@ -4519,7 +4529,7 @@
       <c r="AJ40" s="43"/>
       <c r="AK40" s="20"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U41" s="19" t="s">
         <v>148</v>
       </c>
@@ -4551,7 +4561,7 @@
       <c r="AJ41" s="43"/>
       <c r="AK41" s="20"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U42" s="19" t="s">
         <v>150</v>
       </c>
@@ -4583,7 +4593,7 @@
       <c r="AJ42" s="43"/>
       <c r="AK42" s="20"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U43" s="19" t="s">
         <v>152</v>
       </c>
@@ -4615,7 +4625,7 @@
       <c r="AJ43" s="43"/>
       <c r="AK43" s="20"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.5">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -4650,7 +4660,7 @@
       <c r="AJ44" s="43"/>
       <c r="AK44" s="20"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U45" s="19" t="s">
         <v>156</v>
       </c>
@@ -4685,7 +4695,7 @@
       <c r="AJ45" s="43"/>
       <c r="AK45" s="20"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U46" s="19" t="s">
         <v>158</v>
       </c>
@@ -4721,7 +4731,7 @@
       <c r="AJ46" s="43"/>
       <c r="AK46" s="20"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.5">
       <c r="U47" s="26" t="s">
         <v>161</v>
       </c>
@@ -4753,7 +4763,7 @@
       <c r="AJ47" s="43"/>
       <c r="AK47" s="20"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.95">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.5">
       <c r="AA48" s="19" t="s">
         <v>163</v>
       </c>
@@ -4779,7 +4789,7 @@
       <c r="AJ48" s="43"/>
       <c r="AK48" s="20"/>
     </row>
-    <row r="49" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="49" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AA49" s="19" t="s">
         <v>165</v>
       </c>
@@ -4804,7 +4814,7 @@
       <c r="AJ49" s="43"/>
       <c r="AK49" s="20"/>
     </row>
-    <row r="50" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="50" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AA50" s="26" t="s">
         <v>166</v>
       </c>
@@ -4827,7 +4837,7 @@
       <c r="AJ50" s="43"/>
       <c r="AK50" s="20"/>
     </row>
-    <row r="51" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="51" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AB51">
         <f>SUM(AB39:AB50)</f>
         <v>1618</v>
@@ -4842,7 +4852,7 @@
       <c r="AJ51" s="43"/>
       <c r="AK51" s="20"/>
     </row>
-    <row r="52" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="52" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AB52" s="23" t="s">
         <v>99</v>
       </c>
@@ -4858,7 +4868,7 @@
       <c r="AJ52" s="43"/>
       <c r="AK52" s="20"/>
     </row>
-    <row r="53" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="53" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AG53" s="38" t="s">
         <v>213</v>
       </c>
@@ -4869,7 +4879,7 @@
       <c r="AJ53" s="43"/>
       <c r="AK53" s="20"/>
     </row>
-    <row r="54" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="54" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AG54" s="39" t="s">
         <v>214</v>
       </c>
@@ -4880,7 +4890,7 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="27"/>
     </row>
-    <row r="58" spans="27:37" ht="39" x14ac:dyDescent="0.95">
+    <row r="58" spans="27:37" ht="39.6" x14ac:dyDescent="0.5">
       <c r="AG58" s="9" t="s">
         <v>221</v>
       </c>
@@ -4891,14 +4901,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="59" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AG59" s="16" t="s">
         <v>219</v>
       </c>
       <c r="AH59" s="43"/>
       <c r="AI59" s="20"/>
     </row>
-    <row r="60" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="60" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AG60" s="26" t="s">
         <v>218</v>
       </c>
@@ -4909,13 +4919,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="62" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AG62" s="9" t="s">
         <v>238</v>
       </c>
       <c r="AH62" s="42"/>
     </row>
-    <row r="63" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="63" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AG63" s="19" t="s">
         <v>234</v>
       </c>
@@ -4923,7 +4933,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="64" spans="27:37" x14ac:dyDescent="0.95">
+    <row r="64" spans="27:37" x14ac:dyDescent="0.5">
       <c r="AG64" s="19" t="s">
         <v>226</v>
       </c>
@@ -4934,7 +4944,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="65" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG65" s="19" t="s">
         <v>235</v>
       </c>
@@ -4946,17 +4956,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="66" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG66" s="19"/>
       <c r="AH66" s="20"/>
     </row>
-    <row r="67" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="67" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG67" s="44" t="s">
         <v>227</v>
       </c>
       <c r="AH67" s="20"/>
     </row>
-    <row r="68" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="68" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG68" s="19" t="s">
         <v>228</v>
       </c>
@@ -4967,7 +4977,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="69" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG69" s="19" t="s">
         <v>229</v>
       </c>
@@ -4975,7 +4985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="70" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG70" s="19" t="s">
         <v>230</v>
       </c>
@@ -4983,7 +4993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="71" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG71" s="19" t="s">
         <v>231</v>
       </c>
@@ -4991,7 +5001,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="72" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="72" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG72" s="19" t="s">
         <v>232</v>
       </c>
@@ -4999,7 +5009,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="73" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="73" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG73" s="19" t="s">
         <v>233</v>
       </c>
@@ -5007,7 +5017,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="74" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG74" s="26" t="s">
         <v>235</v>
       </c>
@@ -5019,7 +5029,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="33:36" ht="58.5" x14ac:dyDescent="0.95">
+    <row r="78" spans="33:36" ht="59.4" x14ac:dyDescent="0.5">
       <c r="AG78" s="34" t="s">
         <v>139</v>
       </c>
@@ -5033,13 +5043,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="79" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="79" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG79" s="19"/>
       <c r="AH79" s="43"/>
       <c r="AI79" s="43"/>
       <c r="AJ79" s="20"/>
     </row>
-    <row r="80" spans="33:36" x14ac:dyDescent="0.95">
+    <row r="80" spans="33:36" x14ac:dyDescent="0.5">
       <c r="AG80" s="47" t="s">
         <v>242</v>
       </c>
@@ -5047,7 +5057,7 @@
       <c r="AI80" s="43"/>
       <c r="AJ80" s="20"/>
     </row>
-    <row r="81" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="81" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG81" s="19" t="s">
         <v>241</v>
       </c>
@@ -5061,13 +5071,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="82" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG82" s="19"/>
       <c r="AH82" s="43"/>
       <c r="AI82" s="43"/>
       <c r="AJ82" s="20"/>
     </row>
-    <row r="83" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="83" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG83" s="47" t="s">
         <v>243</v>
       </c>
@@ -5075,7 +5085,7 @@
       <c r="AI83" s="43"/>
       <c r="AJ83" s="20"/>
     </row>
-    <row r="84" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="84" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG84" s="16" t="s">
         <v>247</v>
       </c>
@@ -5083,7 +5093,7 @@
       <c r="AI84" s="43"/>
       <c r="AJ84" s="20"/>
     </row>
-    <row r="85" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="85" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG85" s="19" t="s">
         <v>244</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="86" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG86" s="19" t="s">
         <v>245</v>
       </c>
@@ -5117,7 +5127,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="87" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG87" s="19" t="s">
         <v>246</v>
       </c>
@@ -5134,13 +5144,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="88" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG88" s="19"/>
       <c r="AH88" s="43"/>
       <c r="AI88" s="43"/>
       <c r="AJ88" s="20"/>
     </row>
-    <row r="89" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="89" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG89" s="16" t="s">
         <v>248</v>
       </c>
@@ -5148,7 +5158,7 @@
       <c r="AI89" s="43"/>
       <c r="AJ89" s="20"/>
     </row>
-    <row r="90" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="90" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG90" s="19" t="s">
         <v>249</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="91" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG91" s="19" t="s">
         <v>250</v>
       </c>
@@ -5182,7 +5192,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="92" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="92" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG92" s="19" t="s">
         <v>251</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="33:37" x14ac:dyDescent="0.95">
+    <row r="93" spans="33:37" x14ac:dyDescent="0.5">
       <c r="AG93" s="26" t="s">
         <v>252</v>
       </c>
